--- a/part-regression/part4_data.xlsx
+++ b/part-regression/part4_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pantchanit/Documents/Assignment2_Stat_pp/part-regression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39613E30-2B64-D347-B2CE-7122AFE2CAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F66036-3C65-0745-B5C5-C5989DC3CA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16420" yWindow="5440" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{B7A97A5E-2CF1-644B-83B0-3ADF748DC6D9}"/>
+    <workbookView xWindow="10500" yWindow="500" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{B7A97A5E-2CF1-644B-83B0-3ADF748DC6D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -296,13 +296,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -360,6 +357,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,7 +681,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -689,40 +692,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="24" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1"/>
@@ -730,40 +733,40 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>2555</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>88.14</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>97.06</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>95.63</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>95.47</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>103.74</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>95.69</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>73.45</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>98.05</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>86.9</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>109.79</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <v>94.05</v>
       </c>
       <c r="M2" s="1"/>
@@ -771,40 +774,40 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2556</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>91.14</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>97.88</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>97.43</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>96.31</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>105.13</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>96.16</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>77.73</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>99.52</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>91.72</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>115.03</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>94.99</v>
       </c>
       <c r="M3" s="1"/>
@@ -812,40 +815,40 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2557</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>94.73</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>98.68</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>98.8</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>97.24</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>105.22</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>96.79</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>81.44</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>100.35</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>94.89</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>116.97</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>96.5</v>
       </c>
       <c r="M4" s="1"/>
@@ -853,40 +856,40 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>2558</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>95.8</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>99.26</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>99.38</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>98.2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>98.35</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>97.72</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>83.13</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>98.35</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>95.56</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>99.97</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>97.52</v>
       </c>
       <c r="M5" s="1"/>
@@ -894,40 +897,40 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>2559</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>97.34</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>99.65</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>98.4</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>98.98</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>96.61</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>98.5</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>93.14</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>97.76</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>97.92</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>92.75</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <v>98.23</v>
       </c>
       <c r="M6" s="1"/>
@@ -935,40 +938,40 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>2560</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>97.34</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>99.63</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>98.56</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>99.25</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>98.88</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>99.05</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>95.92</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>98.78</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>96.58</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>97.25</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <v>98.78</v>
       </c>
       <c r="M7" s="1"/>
@@ -976,40 +979,40 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>2561</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>97.74</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>99.9</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>99.58</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>99.78</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>101.16</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>99.43</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>100.02</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>100.21</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>95.95</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>102.76</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <v>99.48</v>
       </c>
       <c r="M8" s="1"/>
@@ -1017,40 +1020,40 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>2562</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>100</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>100</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>99.99</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <v>100</v>
       </c>
       <c r="M9" s="1"/>
@@ -1058,40 +1061,40 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>2563</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>101.23</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>100.04</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>98.98</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>100.26</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>95.45</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>100.06</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>100.02</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>97.96</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>101.72</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>88.45</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <v>100.29</v>
       </c>
       <c r="M10" s="1"/>
@@ -1099,40 +1102,40 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>2564</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>101.1</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>99.77</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>97.27</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>100.49</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>102.84</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>99.61</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>100.3</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>100.04</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>100.7</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>98.96</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <v>100.52</v>
       </c>
       <c r="M11" s="1"/>
@@ -1393,535 +1396,535 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>2552</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>13.1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>13</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>10.1</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>10.6</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>11.5</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>10.8</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>10.1</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>10.199999999999999</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <v>14.8</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>18</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <v>16.7</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="5">
         <v>20.7</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2553</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>27.4</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>24.9</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>19.3</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>15.3</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>13.1</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>19.899999999999999</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>21.2</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>21.9</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>24.6</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>24.6</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>24.9</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <v>23.7</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2554</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>20.3</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>19.3</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>17</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>20</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>21.2</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>29.1</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>30.2</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>29.6</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>23.8</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>18.5</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>21.2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>2555</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>24.2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>25.8</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>23</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>24.3</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>27.4</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>27.6</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>29.1</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>29.5</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>30.2</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>34.5</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>36.6</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>35.4</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>2556</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>33.1</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>32.4</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>37.9</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>42.2</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>40.1</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>39.1</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>37</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>36</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>34.9</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>36.200000000000003</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>35.1</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>33.6</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>2557</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>29.5</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>26.7</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>27.5</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>29.8</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>28.5</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>38.4</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>41.4</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>44</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>45.8</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>46.1</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>44.2</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <v>44.2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>2558</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>43.3</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>42.4</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>40</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>38.799999999999997</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>38.9</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>38.9</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>33.700000000000003</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>34.6</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>35.4</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>36.200000000000003</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>37.6</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <v>37.200000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>2559</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>36.4</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>38.1</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>36</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>35.799999999999997</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>35.5</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>35.1</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>33.799999999999997</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>38.9</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>36.200000000000003</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>36.4</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>35.700000000000003</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>39.1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>2560</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>39.200000000000003</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>40.4</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>38.5</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>36.1</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>40.299999999999997</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>39.5</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>38.6</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>38.4</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>39.5</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>39.700000000000003</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>40</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <v>40.6</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>2561</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>41</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>40.299999999999997</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>40</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>39.4</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>37.799999999999997</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>36.299999999999997</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>37.1</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>37.6</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>38</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>35.5</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>36</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <v>37.299999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>2562</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>50.5</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>51.5</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>52</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>51.3</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>51.2</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>48.1</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>47.8</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>47.2</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>46</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>46.3</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>44.5</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <v>44.5</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>2563</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>44.1</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>43.1</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>37.5</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>33.299999999999997</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>38.1</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>42.5</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>41</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>43</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>45.1</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>44.6</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>46.3</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <v>46.3</v>
       </c>
     </row>
@@ -1950,1413 +1953,1413 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="204" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="V1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="W1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="X1" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Y1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>2553</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>139.94999999999999</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>108.15</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>328.42</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>191.07</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>101.01</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <v>110.16</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="12">
         <v>150.15</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="12">
         <v>97.81</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="12">
         <v>156.02000000000001</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="12">
         <v>156.21</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="12">
         <v>92.75</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="12">
         <v>130.59</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="12">
         <v>252.39</v>
       </c>
-      <c r="O2" s="14">
+      <c r="O2" s="13">
         <v>179.66</v>
       </c>
-      <c r="P2" s="14">
+      <c r="P2" s="13">
         <v>168.37</v>
       </c>
-      <c r="Q2" s="14">
+      <c r="Q2" s="13">
         <v>211.4</v>
       </c>
-      <c r="R2" s="14">
+      <c r="R2" s="13">
         <v>143.63</v>
       </c>
-      <c r="S2" s="14">
+      <c r="S2" s="13">
         <v>221.42</v>
       </c>
-      <c r="T2" s="14">
+      <c r="T2" s="13">
         <v>131.06</v>
       </c>
-      <c r="U2" s="14">
+      <c r="U2" s="13">
         <v>166.04</v>
       </c>
-      <c r="V2" s="14">
+      <c r="V2" s="13">
         <v>155.84</v>
       </c>
-      <c r="W2" s="14">
+      <c r="W2" s="13">
         <v>337.86</v>
       </c>
-      <c r="X2" s="14">
+      <c r="X2" s="13">
         <v>45.71</v>
       </c>
-      <c r="Y2" s="14">
+      <c r="Y2" s="13">
         <v>537.12</v>
       </c>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>2554</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>316.22000000000003</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>104.26</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>108.09</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>266.92</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>147.66999999999999</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>64.31</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <v>146.16999999999999</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="12">
         <v>132.01</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <v>178.09</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="12">
         <v>164.78</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="12">
         <v>103.04</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="12">
         <v>97.83</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="12">
         <v>333.73</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="13">
         <v>259.67</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="13">
         <v>132.21</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="Q3" s="13">
         <v>283.12</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="13">
         <v>230.24</v>
       </c>
-      <c r="S3" s="14">
+      <c r="S3" s="13">
         <v>148.66</v>
       </c>
-      <c r="T3" s="14">
+      <c r="T3" s="13">
         <v>146.74</v>
       </c>
-      <c r="U3" s="14">
+      <c r="U3" s="13">
         <v>206.14</v>
       </c>
-      <c r="V3" s="14">
+      <c r="V3" s="13">
         <v>143.56</v>
       </c>
-      <c r="W3" s="14">
+      <c r="W3" s="13">
         <v>287.89999999999998</v>
       </c>
-      <c r="X3" s="14">
+      <c r="X3" s="13">
         <v>54.84</v>
       </c>
-      <c r="Y3" s="14">
+      <c r="Y3" s="13">
         <v>342.52</v>
       </c>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>2555</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>353.96</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>107.42</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>305.87</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>285.17</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>158.5</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>77.17</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>160.08000000000001</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <v>140.12</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <v>202.38</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="12">
         <v>175.02</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="12">
         <v>109.97</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="12">
         <v>114.75</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="12">
         <v>367.05</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="13">
         <v>277.24</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="13">
         <v>139.82</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="Q4" s="13">
         <v>415.37</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="13">
         <v>312.11</v>
       </c>
-      <c r="S4" s="14">
+      <c r="S4" s="13">
         <v>187.6</v>
       </c>
-      <c r="T4" s="14">
+      <c r="T4" s="13">
         <v>173.14</v>
       </c>
-      <c r="U4" s="14">
+      <c r="U4" s="13">
         <v>221.79</v>
       </c>
-      <c r="V4" s="14">
+      <c r="V4" s="13">
         <v>153.32</v>
       </c>
-      <c r="W4" s="14">
+      <c r="W4" s="13">
         <v>344.72</v>
       </c>
-      <c r="X4" s="14">
+      <c r="X4" s="13">
         <v>66.78</v>
       </c>
-      <c r="Y4" s="14">
+      <c r="Y4" s="13">
         <v>402.4</v>
       </c>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>2556</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>354.59</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>108.3</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>968.5</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>290.10000000000002</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>153.34</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>79.680000000000007</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>159.85</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <v>136.24</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <v>201.59</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="12">
         <v>176.22</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="12">
         <v>117.83</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="12">
         <v>126.57</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="12">
         <v>313.97000000000003</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="13">
         <v>294.68</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="13">
         <v>144.30000000000001</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="13">
         <v>405.5</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="13">
         <v>299.58</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="13">
         <v>184.73</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T5" s="13">
         <v>174.55</v>
       </c>
-      <c r="U5" s="14">
+      <c r="U5" s="13">
         <v>215.74</v>
       </c>
-      <c r="V5" s="14">
+      <c r="V5" s="13">
         <v>159.72999999999999</v>
       </c>
-      <c r="W5" s="14">
+      <c r="W5" s="13">
         <v>341.56</v>
       </c>
-      <c r="X5" s="14">
+      <c r="X5" s="13">
         <v>71.72</v>
       </c>
-      <c r="Y5" s="14">
+      <c r="Y5" s="13">
         <v>434.7</v>
       </c>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>2557</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>371.86</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>105.87</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>927.37</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>304.11</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>147.62</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>66.28</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <v>157.88999999999999</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="12">
         <v>134.12</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <v>197.57</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <v>170.17</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="12">
         <v>112.68</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="12">
         <v>128.28</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="12">
         <v>314.64</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="13">
         <v>300.47000000000003</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="13">
         <v>161.22</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="13">
         <v>335.57</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="13">
         <v>240.22</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="13">
         <v>169.82</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="13">
         <v>153.84</v>
       </c>
-      <c r="U6" s="14">
+      <c r="U6" s="13">
         <v>210.79</v>
       </c>
-      <c r="V6" s="14">
+      <c r="V6" s="13">
         <v>160.57</v>
       </c>
-      <c r="W6" s="14">
+      <c r="W6" s="13">
         <v>287.27</v>
       </c>
-      <c r="X6" s="14">
+      <c r="X6" s="13">
         <v>62.55</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="Y6" s="13">
         <v>420.72</v>
       </c>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>2558</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>356.95</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>100.58</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>741.84</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>323.52</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>143.16</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>70.319999999999993</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <v>154.68</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <v>119.86</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <v>206.21</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="12">
         <v>175.13</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="12">
         <v>125.48</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="12">
         <v>147.49</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="12">
         <v>268.66000000000003</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="13">
         <v>322.63</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="13">
         <v>160.35</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="13">
         <v>346.56</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="13">
         <v>236.77</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S7" s="13">
         <v>174.54</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7" s="13">
         <v>160.18</v>
       </c>
-      <c r="U7" s="14">
+      <c r="U7" s="13">
         <v>182.78</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V7" s="13">
         <v>161.21</v>
       </c>
-      <c r="W7" s="14">
+      <c r="W7" s="13">
         <v>5216.8</v>
       </c>
-      <c r="X7" s="14">
+      <c r="X7" s="13">
         <v>484.47</v>
       </c>
-      <c r="Y7" s="14">
+      <c r="Y7" s="13">
         <v>428.15</v>
       </c>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>2559</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>369.46</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>115.85</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>736.18</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>346.31</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>139.27000000000001</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>83.43</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <v>152.37</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="12">
         <v>114.88</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <v>211.86</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="12">
         <v>178.52</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="12">
         <v>134.06</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="12">
         <v>168.12</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="12">
         <v>260.02999999999997</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="13">
         <v>343.07</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="13">
         <v>151.47999999999999</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="13">
         <v>333.62</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="13">
         <v>227.62</v>
       </c>
-      <c r="S8" s="14">
+      <c r="S8" s="13">
         <v>172.46</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T8" s="13">
         <v>164.32</v>
       </c>
-      <c r="U8" s="14">
+      <c r="U8" s="13">
         <v>174.76</v>
       </c>
-      <c r="V8" s="14">
+      <c r="V8" s="13">
         <v>173.39</v>
       </c>
-      <c r="W8" s="14">
+      <c r="W8" s="13">
         <v>17792.099999999999</v>
       </c>
-      <c r="X8" s="14">
+      <c r="X8" s="13">
         <v>2916.61</v>
       </c>
-      <c r="Y8" s="14">
+      <c r="Y8" s="13">
         <v>433.96</v>
       </c>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>2560</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>366.9</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>133.79</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>770</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>366.39</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>144.93</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>93.31</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <v>150.52000000000001</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="12">
         <v>119.16</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="12">
         <v>204.78</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="12">
         <v>169.28</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="12">
         <v>155.18</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="12">
         <v>174.56</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="12">
         <v>312.8</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="13">
         <v>359.74</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="13">
         <v>162.80000000000001</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="13">
         <v>352.84</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="13">
         <v>216.09</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S9" s="13">
         <v>182.3</v>
       </c>
-      <c r="T9" s="14">
+      <c r="T9" s="13">
         <v>184.16</v>
       </c>
-      <c r="U9" s="14">
+      <c r="U9" s="13">
         <v>193.07</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V9" s="13">
         <v>198.63</v>
       </c>
-      <c r="W9" s="14">
+      <c r="W9" s="13">
         <v>55170.42</v>
       </c>
-      <c r="X9" s="14">
+      <c r="X9" s="13">
         <v>6375.81</v>
       </c>
-      <c r="Y9" s="14">
+      <c r="Y9" s="13">
         <v>440.71</v>
       </c>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>2561</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>361.33</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>133.81</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>643.41999999999996</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>376.48</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>146.84</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <v>87.22</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="12">
         <v>160.96</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="12">
         <v>125.41</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="12">
         <v>200.24</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="12">
         <v>174.08</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="12">
         <v>213.09</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="12">
         <v>186.07</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="12">
         <v>349.1</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="13">
         <v>374.91</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="13">
         <v>189.32</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="13">
         <v>387.5</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10" s="13">
         <v>227.99</v>
       </c>
-      <c r="S10" s="14">
+      <c r="S10" s="13">
         <v>196.32</v>
       </c>
-      <c r="T10" s="14">
+      <c r="T10" s="13">
         <v>200.1</v>
       </c>
-      <c r="U10" s="14">
+      <c r="U10" s="13">
         <v>210.18</v>
       </c>
-      <c r="V10" s="14">
+      <c r="V10" s="13">
         <v>256.64999999999998</v>
       </c>
-      <c r="W10" s="14">
+      <c r="W10" s="13">
         <v>87215.74</v>
       </c>
-      <c r="X10" s="14">
+      <c r="X10" s="13">
         <v>12048.29</v>
       </c>
-      <c r="Y10" s="14">
+      <c r="Y10" s="13">
         <v>469.96</v>
       </c>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>2562</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>364.07</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>140.11000000000001</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>688.29</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>397.92</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>141.44</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <v>80.78</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <v>158.78</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="12">
         <v>120.19</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="12">
         <v>197.92</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="12">
         <v>170.3</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="12">
         <v>214.87</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="12">
         <v>191.23</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="12">
         <v>277.81</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="13">
         <v>388.96</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="13">
         <v>216.36</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q11" s="13">
         <v>361.18</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R11" s="13">
         <v>221.02</v>
       </c>
-      <c r="S11" s="14">
+      <c r="S11" s="13">
         <v>203.62</v>
       </c>
-      <c r="T11" s="14">
+      <c r="T11" s="13">
         <v>197.96</v>
       </c>
-      <c r="U11" s="14">
+      <c r="U11" s="13">
         <v>199.71</v>
       </c>
-      <c r="V11" s="14">
+      <c r="V11" s="13">
         <v>310.62</v>
       </c>
-      <c r="W11" s="14">
+      <c r="W11" s="13">
         <v>111666.9</v>
       </c>
-      <c r="X11" s="14">
+      <c r="X11" s="13">
         <v>23070.59</v>
       </c>
-      <c r="Y11" s="14">
+      <c r="Y11" s="13">
         <v>444.96</v>
       </c>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>2563</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>344.15</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>137.08000000000001</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>708.9</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>402.1</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <v>147.38999999999999</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <v>70.89</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="12">
         <v>141.26</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="12">
         <v>104.15</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="12">
         <v>179.12</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="12">
         <v>158.77000000000001</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="12">
         <v>124.35</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="12">
         <v>146.77000000000001</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="12">
         <v>257.35000000000002</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="13">
         <v>364.58</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="13">
         <v>212.52</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q12" s="13">
         <v>307.24</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R12" s="13">
         <v>193.76</v>
       </c>
-      <c r="S12" s="14">
+      <c r="S12" s="13">
         <v>179.66</v>
       </c>
-      <c r="T12" s="14">
+      <c r="T12" s="13">
         <v>173.51</v>
       </c>
-      <c r="U12" s="14">
+      <c r="U12" s="13">
         <v>164.16</v>
       </c>
-      <c r="V12" s="14">
+      <c r="V12" s="13">
         <v>283.91000000000003</v>
       </c>
-      <c r="W12" s="14">
+      <c r="W12" s="13">
         <v>102299.32</v>
       </c>
-      <c r="X12" s="14">
+      <c r="X12" s="13">
         <v>46885.61</v>
       </c>
-      <c r="Y12" s="14">
+      <c r="Y12" s="13">
         <v>417.95</v>
       </c>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y12">
@@ -3377,277 +3380,277 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" ht="40" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="20">
+      <c r="A2" s="19">
         <v>2547</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="20">
         <v>72623</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="21">
         <v>3801067</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="21">
         <v>3873690</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
+      <c r="A3" s="19">
         <v>2548</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <v>-315334</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <v>4754025</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <v>4438691</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>2549</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>-5550</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>4942923</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>4937372</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>2550</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>431933</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>4870186</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>5302119</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>2551</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>-111111</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>5962482</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>5851371</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>2552</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>592615</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <v>4601982</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>5194597</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>2553</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <v>256744</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>5856591</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>6113336</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>2554</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>-274739</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <v>6982728</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>6707989</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>2555</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="20">
         <v>-708361</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="21">
         <v>7786123</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>7077762</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <v>2556</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="20">
         <v>-748089</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="21">
         <v>7657633</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>6909544</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>2557</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="20">
         <v>-92816</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <v>7403905</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>7311089</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="20">
+      <c r="A13" s="19">
         <v>2558</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="20">
         <v>319644</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="21">
         <v>6906078</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>7225723</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="20">
+      <c r="A14" s="19">
         <v>2559</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="20">
         <v>662517</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="21">
         <v>6888187</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>7550704</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A15" s="20">
+      <c r="A15" s="19">
         <v>2560</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="20">
         <v>419147</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <v>7587118</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>8006265</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A16" s="20">
+      <c r="A16" s="19">
         <v>2561</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="20">
         <v>44261</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="21">
         <v>8064039</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>8108300</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A17" s="20">
+      <c r="A17" s="19">
         <v>2562</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="20">
         <v>202751</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="21">
         <v>7425649</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <v>7628400</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A18" s="20">
+      <c r="A18" s="19">
         <v>2563</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="20">
         <v>707300</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="21">
         <v>6476267</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>7183568</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="19"/>
+      <c r="B19" s="18"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="19"/>
+      <c r="B20" s="18"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="19"/>
+      <c r="B21" s="18"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="19"/>
+      <c r="B22" s="18"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="19"/>
+      <c r="B23" s="18"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="19"/>
+      <c r="B24" s="18"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="19"/>
+      <c r="B25" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/part-regression/part4_data.xlsx
+++ b/part-regression/part4_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pantchanit/Documents/Assignment2_Stat_pp/part-regression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F66036-3C65-0745-B5C5-C5989DC3CA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F64933-F310-C149-A0DE-5EC378713F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="500" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{B7A97A5E-2CF1-644B-83B0-3ADF748DC6D9}"/>
+    <workbookView xWindow="9860" yWindow="6520" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{B7A97A5E-2CF1-644B-83B0-3ADF748DC6D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>ปี</t>
   </si>
@@ -184,13 +184,22 @@
     <t>ร้านขายปลีกอุปกรณ์ภาพและเสียง</t>
   </si>
   <si>
-    <t>ดุลการค้า</t>
-  </si>
-  <si>
-    <t>สินค้าขาเข้า</t>
-  </si>
-  <si>
-    <t>สินค้าขาออก</t>
+    <t>ดัชนีค้าปลีก</t>
+  </si>
+  <si>
+    <t>ดัชนีค้าส่ง</t>
+  </si>
+  <si>
+    <t>มูลค่าสินค้าขาเข้า</t>
+  </si>
+  <si>
+    <t>มูลค่าสินค้าขาออก</t>
+  </si>
+  <si>
+    <t>ดัชนีราคานำเข้า</t>
+  </si>
+  <si>
+    <t>ดัชนีราคาส่งออก</t>
   </si>
 </sst>
 </file>
@@ -200,7 +209,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -248,6 +257,26 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -269,7 +298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -292,11 +321,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -345,11 +385,7 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -363,6 +399,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,40 +749,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="22" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1"/>
@@ -3371,286 +3428,332 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3DC0F5-AB8D-BE4A-8EE9-39BF7FE6E260}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="19">
-        <v>2547</v>
-      </c>
-      <c r="B2" s="20">
-        <v>72623</v>
-      </c>
-      <c r="C2" s="21">
-        <v>3801067</v>
-      </c>
-      <c r="D2" s="21">
-        <v>3873690</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
-        <v>2548</v>
-      </c>
-      <c r="B3" s="20">
-        <v>-315334</v>
-      </c>
-      <c r="C3" s="21">
-        <v>4754025</v>
-      </c>
-      <c r="D3" s="21">
-        <v>4438691</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
-        <v>2549</v>
-      </c>
-      <c r="B4" s="20">
-        <v>-5550</v>
-      </c>
-      <c r="C4" s="21">
-        <v>4942923</v>
-      </c>
-      <c r="D4" s="21">
-        <v>4937372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
-        <v>2550</v>
-      </c>
-      <c r="B5" s="20">
-        <v>431933</v>
-      </c>
-      <c r="C5" s="21">
-        <v>4870186</v>
-      </c>
-      <c r="D5" s="21">
-        <v>5302119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
-        <v>2551</v>
-      </c>
-      <c r="B6" s="20">
-        <v>-111111</v>
-      </c>
-      <c r="C6" s="21">
-        <v>5962482</v>
-      </c>
-      <c r="D6" s="21">
-        <v>5851371</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
-        <v>2552</v>
-      </c>
-      <c r="B7" s="20">
-        <v>592615</v>
-      </c>
-      <c r="C7" s="21">
-        <v>4601982</v>
-      </c>
-      <c r="D7" s="21">
-        <v>5194597</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
+      <c r="F1" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
         <v>2553</v>
       </c>
-      <c r="B8" s="20">
-        <v>256744</v>
-      </c>
-      <c r="C8" s="21">
+      <c r="B2" s="19">
         <v>5856591</v>
       </c>
-      <c r="D8" s="21">
+      <c r="C2" s="19">
         <v>6113336</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
+      <c r="D2" s="24">
+        <v>172.79</v>
+      </c>
+      <c r="E2" s="28">
+        <v>143.57</v>
+      </c>
+      <c r="F2" s="26">
+        <v>89.4</v>
+      </c>
+      <c r="G2" s="31">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
         <v>2554</v>
       </c>
-      <c r="B9" s="20">
-        <v>-274739</v>
-      </c>
-      <c r="C9" s="21">
+      <c r="B3" s="19">
         <v>6982728</v>
       </c>
-      <c r="D9" s="21">
+      <c r="C3" s="19">
         <v>6707989</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
+      <c r="D3" s="24">
+        <v>190.21</v>
+      </c>
+      <c r="E3" s="28">
+        <v>153.94</v>
+      </c>
+      <c r="F3" s="26">
+        <v>98.4</v>
+      </c>
+      <c r="G3" s="31">
+        <v>99.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
         <v>2555</v>
       </c>
-      <c r="B10" s="20">
-        <v>-708361</v>
-      </c>
-      <c r="C10" s="21">
+      <c r="B4" s="19">
         <v>7786123</v>
       </c>
-      <c r="D10" s="21">
+      <c r="C4" s="19">
         <v>7077762</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
+      <c r="D4" s="24">
+        <v>226.11</v>
+      </c>
+      <c r="E4" s="28">
+        <v>186.12</v>
+      </c>
+      <c r="F4" s="26">
+        <v>100</v>
+      </c>
+      <c r="G4" s="31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
         <v>2556</v>
       </c>
-      <c r="B11" s="20">
-        <v>-748089</v>
-      </c>
-      <c r="C11" s="21">
+      <c r="B5" s="19">
         <v>7657633</v>
       </c>
-      <c r="D11" s="21">
+      <c r="C5" s="19">
         <v>6909544</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
+      <c r="D5" s="24">
+        <v>226.16</v>
+      </c>
+      <c r="E5" s="28">
+        <v>181.35</v>
+      </c>
+      <c r="F5" s="26">
+        <v>97.9</v>
+      </c>
+      <c r="G5" s="31">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
         <v>2557</v>
       </c>
-      <c r="B12" s="20">
-        <v>-92816</v>
-      </c>
-      <c r="C12" s="21">
+      <c r="B6" s="19">
         <v>7403905</v>
       </c>
-      <c r="D12" s="21">
+      <c r="C6" s="19">
         <v>7311089</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
+      <c r="D6" s="24">
+        <v>213.02</v>
+      </c>
+      <c r="E6" s="28">
+        <v>170.77</v>
+      </c>
+      <c r="F6" s="26">
+        <v>96.1</v>
+      </c>
+      <c r="G6" s="31">
+        <v>98.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
         <v>2558</v>
       </c>
-      <c r="B13" s="20">
-        <v>319644</v>
-      </c>
-      <c r="C13" s="21">
+      <c r="B7" s="19">
         <v>6906078</v>
       </c>
-      <c r="D13" s="21">
+      <c r="C7" s="19">
         <v>7225723</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
+      <c r="D7" s="24">
+        <v>212.92</v>
+      </c>
+      <c r="E7" s="28">
+        <v>181.02</v>
+      </c>
+      <c r="F7" s="26">
+        <v>85.7</v>
+      </c>
+      <c r="G7" s="31">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
         <v>2559</v>
       </c>
-      <c r="B14" s="20">
-        <v>662517</v>
-      </c>
-      <c r="C14" s="21">
+      <c r="B8" s="19">
         <v>6888187</v>
       </c>
-      <c r="D14" s="21">
+      <c r="C8" s="19">
         <v>7550704</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A15" s="19">
+      <c r="D8" s="24">
+        <v>215.05</v>
+      </c>
+      <c r="E8" s="28">
+        <v>200.14</v>
+      </c>
+      <c r="F8" s="26">
+        <v>83.4</v>
+      </c>
+      <c r="G8" s="31">
+        <v>93.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
         <v>2560</v>
       </c>
-      <c r="B15" s="20">
-        <v>419147</v>
-      </c>
-      <c r="C15" s="21">
+      <c r="B9" s="19">
         <v>7587118</v>
       </c>
-      <c r="D15" s="21">
+      <c r="C9" s="19">
         <v>8006265</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A16" s="19">
+      <c r="D9" s="24">
+        <v>228.62</v>
+      </c>
+      <c r="E9" s="28">
+        <v>200.92</v>
+      </c>
+      <c r="F9" s="26">
+        <v>88</v>
+      </c>
+      <c r="G9" s="31">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
         <v>2561</v>
       </c>
-      <c r="B16" s="20">
-        <v>44261</v>
-      </c>
-      <c r="C16" s="21">
+      <c r="B10" s="19">
         <v>8064039</v>
       </c>
-      <c r="D16" s="21">
+      <c r="C10" s="19">
         <v>8108300</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A17" s="19">
+      <c r="D10" s="24">
+        <v>253.41</v>
+      </c>
+      <c r="E10" s="28">
+        <v>208.22</v>
+      </c>
+      <c r="F10" s="26">
+        <v>93</v>
+      </c>
+      <c r="G10" s="31">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
         <v>2562</v>
       </c>
-      <c r="B17" s="20">
-        <v>202751</v>
-      </c>
-      <c r="C17" s="21">
+      <c r="B11" s="19">
         <v>7425649</v>
       </c>
-      <c r="D17" s="21">
+      <c r="C11" s="19">
         <v>7628400</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
+      <c r="D11" s="24">
+        <v>261.58999999999997</v>
+      </c>
+      <c r="E11" s="28">
+        <v>215.48</v>
+      </c>
+      <c r="F11" s="26">
+        <v>93.2</v>
+      </c>
+      <c r="G11" s="31">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
         <v>2563</v>
       </c>
-      <c r="B18" s="20">
-        <v>707300</v>
-      </c>
-      <c r="C18" s="21">
+      <c r="B12" s="19">
         <v>6476267</v>
       </c>
-      <c r="D18" s="21">
+      <c r="C12" s="19">
         <v>7183568</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="18"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="18"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="18"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="18"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="18"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="18"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="18"/>
+      <c r="D12" s="24">
+        <v>234.31</v>
+      </c>
+      <c r="E12" s="28">
+        <v>210.64</v>
+      </c>
+      <c r="F12" s="26">
+        <v>91.3</v>
+      </c>
+      <c r="G12" s="31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D13" s="23"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D18" s="23"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D19" s="23"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D20" s="23"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D22" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/part-regression/part4_data.xlsx
+++ b/part-regression/part4_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pantchanit/Documents/Assignment2_Stat_pp/part-regression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F64933-F310-C149-A0DE-5EC378713F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2929D853-5256-0840-A02C-9625B8BD392A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9860" yWindow="6520" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{B7A97A5E-2CF1-644B-83B0-3ADF748DC6D9}"/>
+    <workbookView xWindow="14200" yWindow="5740" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{B7A97A5E-2CF1-644B-83B0-3ADF748DC6D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -321,22 +321,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -388,9 +377,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -407,7 +393,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -415,11 +400,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,40 +735,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1"/>
@@ -3431,34 +3417,35 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3466,22 +3453,22 @@
       <c r="A2" s="18">
         <v>2553</v>
       </c>
-      <c r="B2" s="19">
-        <v>5856591</v>
-      </c>
-      <c r="C2" s="19">
-        <v>6113336</v>
-      </c>
-      <c r="D2" s="24">
+      <c r="B2" s="30">
+        <v>5.8565909999999999</v>
+      </c>
+      <c r="C2" s="30">
+        <v>6.1133360000000003</v>
+      </c>
+      <c r="D2" s="23">
         <v>172.79</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="26">
         <v>143.57</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="28">
         <v>89.4</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="29">
         <v>94.1</v>
       </c>
     </row>
@@ -3489,22 +3476,22 @@
       <c r="A3" s="18">
         <v>2554</v>
       </c>
-      <c r="B3" s="19">
-        <v>6982728</v>
-      </c>
-      <c r="C3" s="19">
-        <v>6707989</v>
-      </c>
-      <c r="D3" s="24">
+      <c r="B3" s="30">
+        <v>6.9827279999999998</v>
+      </c>
+      <c r="C3" s="30">
+        <v>6.7079890000000004</v>
+      </c>
+      <c r="D3" s="23">
         <v>190.21</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="26">
         <v>153.94</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="28">
         <v>98.4</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="29">
         <v>99.4</v>
       </c>
     </row>
@@ -3512,22 +3499,22 @@
       <c r="A4" s="18">
         <v>2555</v>
       </c>
-      <c r="B4" s="19">
-        <v>7786123</v>
-      </c>
-      <c r="C4" s="19">
-        <v>7077762</v>
-      </c>
-      <c r="D4" s="24">
+      <c r="B4" s="30">
+        <v>7.7861229999999999</v>
+      </c>
+      <c r="C4" s="30">
+        <v>7.0777619999999999</v>
+      </c>
+      <c r="D4" s="23">
         <v>226.11</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="26">
         <v>186.12</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="28">
         <v>100</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="29">
         <v>100</v>
       </c>
     </row>
@@ -3535,22 +3522,22 @@
       <c r="A5" s="18">
         <v>2556</v>
       </c>
-      <c r="B5" s="19">
-        <v>7657633</v>
-      </c>
-      <c r="C5" s="19">
-        <v>6909544</v>
-      </c>
-      <c r="D5" s="24">
+      <c r="B5" s="30">
+        <v>7.6576329999999997</v>
+      </c>
+      <c r="C5" s="30">
+        <v>6.9095440000000004</v>
+      </c>
+      <c r="D5" s="23">
         <v>226.16</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="26">
         <v>181.35</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="28">
         <v>97.9</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="29">
         <v>99.6</v>
       </c>
     </row>
@@ -3558,22 +3545,22 @@
       <c r="A6" s="18">
         <v>2557</v>
       </c>
-      <c r="B6" s="19">
-        <v>7403905</v>
-      </c>
-      <c r="C6" s="19">
-        <v>7311089</v>
-      </c>
-      <c r="D6" s="24">
+      <c r="B6" s="30">
+        <v>7.403905</v>
+      </c>
+      <c r="C6" s="30">
+        <v>7.3110889999999999</v>
+      </c>
+      <c r="D6" s="23">
         <v>213.02</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="26">
         <v>170.77</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="28">
         <v>96.1</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="29">
         <v>98.3</v>
       </c>
     </row>
@@ -3581,22 +3568,22 @@
       <c r="A7" s="18">
         <v>2558</v>
       </c>
-      <c r="B7" s="19">
-        <v>6906078</v>
-      </c>
-      <c r="C7" s="19">
-        <v>7225723</v>
-      </c>
-      <c r="D7" s="24">
+      <c r="B7" s="30">
+        <v>6.9060779999999999</v>
+      </c>
+      <c r="C7" s="30">
+        <v>7.2257230000000003</v>
+      </c>
+      <c r="D7" s="23">
         <v>212.92</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="26">
         <v>181.02</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="28">
         <v>85.7</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="29">
         <v>94.3</v>
       </c>
     </row>
@@ -3604,22 +3591,22 @@
       <c r="A8" s="18">
         <v>2559</v>
       </c>
-      <c r="B8" s="19">
-        <v>6888187</v>
-      </c>
-      <c r="C8" s="19">
-        <v>7550704</v>
-      </c>
-      <c r="D8" s="24">
+      <c r="B8" s="30">
+        <v>6.8881870000000003</v>
+      </c>
+      <c r="C8" s="30">
+        <v>7.5507039999999996</v>
+      </c>
+      <c r="D8" s="23">
         <v>215.05</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="26">
         <v>200.14</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="28">
         <v>83.4</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="29">
         <v>93.9</v>
       </c>
     </row>
@@ -3627,22 +3614,22 @@
       <c r="A9" s="18">
         <v>2560</v>
       </c>
-      <c r="B9" s="19">
-        <v>7587118</v>
-      </c>
-      <c r="C9" s="19">
-        <v>8006265</v>
-      </c>
-      <c r="D9" s="24">
+      <c r="B9" s="30">
+        <v>7.5871180000000003</v>
+      </c>
+      <c r="C9" s="30">
+        <v>8.0062650000000009</v>
+      </c>
+      <c r="D9" s="23">
         <v>228.62</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="26">
         <v>200.92</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="28">
         <v>88</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="29">
         <v>97.3</v>
       </c>
     </row>
@@ -3650,22 +3637,22 @@
       <c r="A10" s="18">
         <v>2561</v>
       </c>
-      <c r="B10" s="19">
-        <v>8064039</v>
-      </c>
-      <c r="C10" s="19">
-        <v>8108300</v>
-      </c>
-      <c r="D10" s="24">
+      <c r="B10" s="30">
+        <v>8.0640389999999993</v>
+      </c>
+      <c r="C10" s="30">
+        <v>8.1082999999999998</v>
+      </c>
+      <c r="D10" s="23">
         <v>253.41</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="26">
         <v>208.22</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="28">
         <v>93</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="29">
         <v>100.6</v>
       </c>
     </row>
@@ -3673,22 +3660,22 @@
       <c r="A11" s="18">
         <v>2562</v>
       </c>
-      <c r="B11" s="19">
-        <v>7425649</v>
-      </c>
-      <c r="C11" s="19">
-        <v>7628400</v>
-      </c>
-      <c r="D11" s="24">
+      <c r="B11" s="30">
+        <v>7.4256489999999999</v>
+      </c>
+      <c r="C11" s="30">
+        <v>7.6284000000000001</v>
+      </c>
+      <c r="D11" s="23">
         <v>261.58999999999997</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="26">
         <v>215.48</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="28">
         <v>93.2</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="29">
         <v>101</v>
       </c>
     </row>
@@ -3696,66 +3683,67 @@
       <c r="A12" s="18">
         <v>2563</v>
       </c>
-      <c r="B12" s="19">
-        <v>6476267</v>
-      </c>
-      <c r="C12" s="19">
-        <v>7183568</v>
-      </c>
-      <c r="D12" s="24">
+      <c r="B12" s="30">
+        <v>6.476267</v>
+      </c>
+      <c r="C12" s="30">
+        <v>7.1835680000000002</v>
+      </c>
+      <c r="D12" s="23">
         <v>234.31</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="26">
         <v>210.64</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="28">
         <v>91.3</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="29">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D13" s="23"/>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D14" s="23"/>
+      <c r="D14" s="22"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D15" s="23"/>
+      <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D16" s="23"/>
+      <c r="D16" s="22"/>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D17" s="23"/>
+      <c r="D17" s="22"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D18" s="23"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D19" s="23"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D20" s="23"/>
+      <c r="D20" s="22"/>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D22" s="23"/>
+      <c r="D22" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>